--- a/team_specific_matrix/California Baptist_A.xlsx
+++ b/team_specific_matrix/California Baptist_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2148760330578512</v>
+        <v>0.2122186495176849</v>
       </c>
       <c r="C2">
-        <v>0.5371900826446281</v>
+        <v>0.5401929260450161</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008264462809917356</v>
+        <v>0.009646302250803859</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1322314049586777</v>
+        <v>0.135048231511254</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1074380165289256</v>
+        <v>0.1028938906752412</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007633587786259542</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05343511450381679</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7099236641221374</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2290076335877863</v>
+        <v>0.2470588235294118</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1724137931034483</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5172413793103449</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3103448275862069</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05586592178770949</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00558659217877095</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05586592178770949</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2905027932960894</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0223463687150838</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.106145251396648</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="R6">
-        <v>0.0670391061452514</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="S6">
-        <v>0.3966480446927375</v>
+        <v>0.3926940639269406</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1407407407407407</v>
+        <v>0.1337209302325581</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007407407407407408</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05925925925925926</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01481481481481482</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1777777777777778</v>
+        <v>0.1686046511627907</v>
       </c>
       <c r="R7">
-        <v>0.03703703703703703</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="S7">
-        <v>0.362962962962963</v>
+        <v>0.3604651162790697</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1141304347826087</v>
+        <v>0.1103286384976526</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0108695652173913</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05978260869565218</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1413043478260869</v>
+        <v>0.136150234741784</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01630434782608696</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1576086956521739</v>
+        <v>0.1877934272300469</v>
       </c>
       <c r="R8">
-        <v>0.07336956521739131</v>
+        <v>0.08215962441314555</v>
       </c>
       <c r="S8">
-        <v>0.4266304347826087</v>
+        <v>0.3802816901408451</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1529411764705882</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02352941176470588</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1058823529411765</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08235294117647059</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01176470588235294</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1294117647058824</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="R9">
-        <v>0.1058823529411765</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="S9">
-        <v>0.3882352941176471</v>
+        <v>0.3739130434782609</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1208053691275168</v>
+        <v>0.1239168110918544</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02348993288590604</v>
+        <v>0.0268630849220104</v>
       </c>
       <c r="E10">
-        <v>0.003355704697986577</v>
+        <v>0.004332755632582322</v>
       </c>
       <c r="F10">
-        <v>0.08165548098434004</v>
+        <v>0.08145580589254767</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1398210290827741</v>
+        <v>0.1377816291161179</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02237136465324385</v>
+        <v>0.02079722703639515</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1890380313199105</v>
+        <v>0.1793760831889082</v>
       </c>
       <c r="R10">
-        <v>0.07270693512304251</v>
+        <v>0.07538994800693241</v>
       </c>
       <c r="S10">
-        <v>0.3467561521252797</v>
+        <v>0.3500866551126516</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.160427807486631</v>
+        <v>0.1551020408163265</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09625668449197861</v>
+        <v>0.09795918367346938</v>
       </c>
       <c r="K11">
-        <v>0.1818181818181818</v>
+        <v>0.1918367346938775</v>
       </c>
       <c r="L11">
-        <v>0.5294117647058824</v>
+        <v>0.5387755102040817</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03208556149732621</v>
+        <v>0.0163265306122449</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7982456140350878</v>
+        <v>0.7913669064748201</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.131578947368421</v>
+        <v>0.1438848920863309</v>
       </c>
       <c r="K12">
-        <v>0.008771929824561403</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="L12">
-        <v>0.02631578947368421</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03508771929824561</v>
+        <v>0.01438848920863309</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2777777777777778</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.06521739130434782</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01910828025477707</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2101910828025478</v>
+        <v>0.2091836734693878</v>
       </c>
       <c r="I15">
-        <v>0.07006369426751592</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="J15">
-        <v>0.3630573248407643</v>
+        <v>0.3418367346938775</v>
       </c>
       <c r="K15">
-        <v>0.04458598726114649</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="N15">
-        <v>0.006369426751592357</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="O15">
-        <v>0.05095541401273886</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2356687898089172</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0291970802919708</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1970802919708029</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="I16">
-        <v>0.0364963503649635</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="J16">
-        <v>0.4087591240875912</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K16">
-        <v>0.1094890510948905</v>
+        <v>0.1</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0218978102189781</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1167883211678832</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08029197080291971</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02142857142857143</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2285714285714286</v>
+        <v>0.2240896358543417</v>
       </c>
       <c r="I17">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J17">
-        <v>0.3892857142857143</v>
+        <v>0.4061624649859944</v>
       </c>
       <c r="K17">
-        <v>0.1464285714285714</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.025</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05714285714285714</v>
+        <v>0.06162464985994398</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08214285714285714</v>
+        <v>0.08683473389355742</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02542372881355932</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1864406779661017</v>
+        <v>0.1863354037267081</v>
       </c>
       <c r="I18">
-        <v>0.05932203389830509</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="J18">
-        <v>0.5338983050847458</v>
+        <v>0.4968944099378882</v>
       </c>
       <c r="K18">
-        <v>0.06779661016949153</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008474576271186441</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05932203389830509</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05932203389830509</v>
+        <v>0.04968944099378882</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02931228861330327</v>
+        <v>0.0215962441314554</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2367531003382187</v>
+        <v>0.2262910798122066</v>
       </c>
       <c r="I19">
-        <v>0.05073280721533258</v>
+        <v>0.05727699530516432</v>
       </c>
       <c r="J19">
-        <v>0.3562570462232243</v>
+        <v>0.3849765258215962</v>
       </c>
       <c r="K19">
-        <v>0.07891770011273957</v>
+        <v>0.09483568075117371</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03043968432919955</v>
+        <v>0.03098591549295775</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06877113866967305</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1488162344983089</v>
+        <v>0.1136150234741784</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/California Baptist_A.xlsx
+++ b/team_specific_matrix/California Baptist_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2122186495176849</v>
+        <v>0.2069970845481049</v>
       </c>
       <c r="C2">
-        <v>0.5401929260450161</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009646302250803859</v>
+        <v>0.008746355685131196</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.135048231511254</v>
+        <v>0.1341107871720117</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1028938906752412</v>
+        <v>0.09912536443148688</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005882352941176471</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06470588235294118</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6823529411764706</v>
+        <v>0.6701570680628273</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2470588235294118</v>
+        <v>0.2513089005235602</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1136363636363636</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3409090909090909</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0410958904109589</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0136986301369863</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0502283105022831</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.273972602739726</v>
+        <v>0.2887029288702929</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0273972602739726</v>
+        <v>0.02928870292887029</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1141552511415525</v>
+        <v>0.1255230125523012</v>
       </c>
       <c r="R6">
-        <v>0.0867579908675799</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="S6">
-        <v>0.3926940639269406</v>
+        <v>0.3723849372384937</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1337209302325581</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005813953488372093</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05813953488372093</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.186046511627907</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02325581395348837</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1686046511627907</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R7">
-        <v>0.06395348837209303</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="S7">
-        <v>0.3604651162790697</v>
+        <v>0.3582887700534759</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1103286384976526</v>
+        <v>0.1174004192872117</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01643192488262911</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06338028169014084</v>
+        <v>0.06498951781970649</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.136150234741784</v>
+        <v>0.129979035639413</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02347417840375587</v>
+        <v>0.0209643605870021</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1877934272300469</v>
+        <v>0.1740041928721174</v>
       </c>
       <c r="R8">
-        <v>0.08215962441314555</v>
+        <v>0.08595387840670859</v>
       </c>
       <c r="S8">
-        <v>0.3802816901408451</v>
+        <v>0.3878406708595388</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1391304347826087</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01739130434782609</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1043478260869565</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0782608695652174</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01739130434782609</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1652173913043478</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="R9">
-        <v>0.1043478260869565</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="S9">
-        <v>0.3739130434782609</v>
+        <v>0.3893129770992366</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1239168110918544</v>
+        <v>0.119969040247678</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0268630849220104</v>
+        <v>0.02863777089783282</v>
       </c>
       <c r="E10">
-        <v>0.004332755632582322</v>
+        <v>0.003869969040247678</v>
       </c>
       <c r="F10">
-        <v>0.08145580589254767</v>
+        <v>0.0781733746130031</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1377816291161179</v>
+        <v>0.1369969040247678</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02079722703639515</v>
+        <v>0.01934984520123839</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1793760831889082</v>
+        <v>0.1818885448916409</v>
       </c>
       <c r="R10">
-        <v>0.07538994800693241</v>
+        <v>0.07739938080495357</v>
       </c>
       <c r="S10">
-        <v>0.3500866551126516</v>
+        <v>0.3537151702786377</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1551020408163265</v>
+        <v>0.1516245487364621</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09795918367346938</v>
+        <v>0.1046931407942238</v>
       </c>
       <c r="K11">
-        <v>0.1918367346938775</v>
+        <v>0.2021660649819494</v>
       </c>
       <c r="L11">
-        <v>0.5387755102040817</v>
+        <v>0.5234657039711191</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0163265306122449</v>
+        <v>0.01805054151624549</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7913669064748201</v>
+        <v>0.7712418300653595</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1438848920863309</v>
+        <v>0.1633986928104575</v>
       </c>
       <c r="K12">
-        <v>0.007194244604316547</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.04316546762589928</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01438848920863309</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6739130434782609</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06521739130434782</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02040816326530612</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2091836734693878</v>
+        <v>0.2062780269058296</v>
       </c>
       <c r="I15">
-        <v>0.08673469387755102</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="J15">
-        <v>0.3418367346938775</v>
+        <v>0.3318385650224215</v>
       </c>
       <c r="K15">
-        <v>0.03571428571428571</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00510204081632653</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="N15">
-        <v>0.01020408163265306</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="O15">
-        <v>0.04081632653061224</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2466367713004484</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1888888888888889</v>
+        <v>0.1921182266009852</v>
       </c>
       <c r="I16">
-        <v>0.06111111111111111</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="J16">
-        <v>0.4166666666666667</v>
+        <v>0.4187192118226601</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08888888888888889</v>
+        <v>0.08374384236453201</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08888888888888889</v>
+        <v>0.08374384236453201</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01680672268907563</v>
+        <v>0.015</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2240896358543417</v>
+        <v>0.22</v>
       </c>
       <c r="I17">
-        <v>0.04761904761904762</v>
+        <v>0.0525</v>
       </c>
       <c r="J17">
-        <v>0.4061624649859944</v>
+        <v>0.4075</v>
       </c>
       <c r="K17">
-        <v>0.1372549019607843</v>
+        <v>0.1325</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0196078431372549</v>
+        <v>0.02</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06162464985994398</v>
+        <v>0.065</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08683473389355742</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02484472049689441</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1863354037267081</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="I18">
-        <v>0.06211180124223602</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="J18">
-        <v>0.4968944099378882</v>
+        <v>0.467032967032967</v>
       </c>
       <c r="K18">
-        <v>0.09937888198757763</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01863354037267081</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06211180124223602</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.04968944099378882</v>
+        <v>0.04945054945054945</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0215962441314554</v>
+        <v>0.0226890756302521</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2262910798122066</v>
+        <v>0.2260504201680672</v>
       </c>
       <c r="I19">
-        <v>0.05727699530516432</v>
+        <v>0.05630252100840336</v>
       </c>
       <c r="J19">
-        <v>0.3849765258215962</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="K19">
-        <v>0.09483568075117371</v>
+        <v>0.09327731092436975</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03098591549295775</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07042253521126761</v>
+        <v>0.073109243697479</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1136150234741784</v>
+        <v>0.1134453781512605</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/California Baptist_A.xlsx
+++ b/team_specific_matrix/California Baptist_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2069970845481049</v>
+        <v>0.2028169014084507</v>
       </c>
       <c r="C2">
-        <v>0.5510204081632653</v>
+        <v>0.5605633802816902</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008746355685131196</v>
+        <v>0.008450704225352112</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1341107871720117</v>
+        <v>0.1295774647887324</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09912536443148688</v>
+        <v>0.09859154929577464</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005235602094240838</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07329842931937172</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6701570680628273</v>
+        <v>0.6782178217821783</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2513089005235602</v>
+        <v>0.2425742574257426</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04602510460251046</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01255230125523013</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04602510460251046</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2887029288702929</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02928870292887029</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1255230125523012</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="R6">
-        <v>0.07949790794979079</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="S6">
-        <v>0.3723849372384937</v>
+        <v>0.3849206349206349</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1443850267379679</v>
+        <v>0.1421052631578947</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0053475935828877</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1711229946524064</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0213903743315508</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1764705882352941</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="R7">
-        <v>0.06417112299465241</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="S7">
-        <v>0.3582887700534759</v>
+        <v>0.3578947368421053</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1174004192872117</v>
+        <v>0.1224899598393574</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01886792452830189</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06498951781970649</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.129979035639413</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0209643605870021</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1740041928721174</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R8">
-        <v>0.08595387840670859</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="S8">
-        <v>0.3878406708595388</v>
+        <v>0.3995983935742972</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1221374045801527</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01526717557251908</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0916030534351145</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0916030534351145</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01526717557251908</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1679389312977099</v>
+        <v>0.162962962962963</v>
       </c>
       <c r="R9">
-        <v>0.1068702290076336</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="S9">
-        <v>0.3893129770992366</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.119969040247678</v>
+        <v>0.1202389843166542</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02863777089783282</v>
+        <v>0.02763256161314414</v>
       </c>
       <c r="E10">
-        <v>0.003869969040247678</v>
+        <v>0.003734129947722181</v>
       </c>
       <c r="F10">
-        <v>0.0781733746130031</v>
+        <v>0.07916355489171023</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1369969040247678</v>
+        <v>0.1374159820761763</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01934984520123839</v>
+        <v>0.0186706497386109</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1818885448916409</v>
+        <v>0.1837191934279313</v>
       </c>
       <c r="R10">
-        <v>0.07739938080495357</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S10">
-        <v>0.3537151702786377</v>
+        <v>0.3525018670649739</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1516245487364621</v>
+        <v>0.1494661921708185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1046931407942238</v>
+        <v>0.1067615658362989</v>
       </c>
       <c r="K11">
-        <v>0.2021660649819494</v>
+        <v>0.199288256227758</v>
       </c>
       <c r="L11">
-        <v>0.5234657039711191</v>
+        <v>0.5266903914590747</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01805054151624549</v>
+        <v>0.01779359430604982</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7712418300653595</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1633986928104575</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.006535947712418301</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="L12">
-        <v>0.0457516339869281</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0130718954248366</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6730769230769231</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2692307692307692</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0576923076923077</v>
+        <v>0.07272727272727272</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0179372197309417</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2062780269058296</v>
+        <v>0.2096069868995633</v>
       </c>
       <c r="I15">
-        <v>0.08520179372197309</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="J15">
-        <v>0.3318385650224215</v>
+        <v>0.3318777292576419</v>
       </c>
       <c r="K15">
-        <v>0.05381165919282511</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004484304932735426</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="N15">
-        <v>0.008968609865470852</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="O15">
-        <v>0.04484304932735426</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2466367713004484</v>
+        <v>0.2445414847161572</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02955665024630542</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1921182266009852</v>
+        <v>0.1877934272300469</v>
       </c>
       <c r="I16">
-        <v>0.06403940886699508</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="J16">
-        <v>0.4187192118226601</v>
+        <v>0.4178403755868544</v>
       </c>
       <c r="K16">
-        <v>0.09852216748768473</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02955665024630542</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08374384236453201</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08374384236453201</v>
+        <v>0.0892018779342723</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.015</v>
+        <v>0.01699029126213592</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.22</v>
+        <v>0.220873786407767</v>
       </c>
       <c r="I17">
-        <v>0.0525</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="J17">
-        <v>0.4075</v>
+        <v>0.4029126213592233</v>
       </c>
       <c r="K17">
-        <v>0.1325</v>
+        <v>0.133495145631068</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.065</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08749999999999999</v>
+        <v>0.08980582524271845</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02197802197802198</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1978021978021978</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.06593406593406594</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="J18">
-        <v>0.467032967032967</v>
+        <v>0.4648648648648649</v>
       </c>
       <c r="K18">
-        <v>0.0989010989010989</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02747252747252747</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.04945054945054945</v>
+        <v>0.04864864864864865</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0226890756302521</v>
+        <v>0.02245388933440257</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2260504201680672</v>
+        <v>0.2269446672012831</v>
       </c>
       <c r="I19">
-        <v>0.05630252100840336</v>
+        <v>0.05533279871692061</v>
       </c>
       <c r="J19">
-        <v>0.3857142857142857</v>
+        <v>0.3889334402566159</v>
       </c>
       <c r="K19">
-        <v>0.09327731092436975</v>
+        <v>0.08981555733761026</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02941176470588235</v>
+        <v>0.02967121090617482</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.073109243697479</v>
+        <v>0.07217321571772253</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1134453781512605</v>
+        <v>0.1146752205292702</v>
       </c>
     </row>
   </sheetData>
